--- a/csv/Grand Slams.xlsx
+++ b/csv/Grand Slams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbenj\OneDrive\Bureau\Essais R Shiny\App5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afka\Desktop\R Tennis App\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F28C4A0-F4AC-4B6B-82BC-E097642D2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4B16B-73BC-4478-92F3-253C8E41A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="990" windowWidth="24330" windowHeight="14235" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roger Federer" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>Australian_Open</t>
   </si>
   <si>
-    <t>Rolland_Garros</t>
-  </si>
-  <si>
     <t>Wimbeldon</t>
   </si>
   <si>
     <t>US_Open</t>
+  </si>
+  <si>
+    <t>Roland_Garros</t>
   </si>
 </sst>
 </file>
@@ -524,48 +524,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,11 +879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -893,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1248,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,11 +1555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88540B1B-242E-4275-8493-3BFBB86F3321}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1569,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
